--- a/spell-table.xlsx
+++ b/spell-table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,10 +13,170 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Beginning</t>
+  </si>
+  <si>
+    <t>Penultimate</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Alohomora</t>
+  </si>
+  <si>
+    <t>Expecto</t>
+  </si>
+  <si>
+    <t>Patronum</t>
+  </si>
+  <si>
+    <t>Confundio</t>
+  </si>
+  <si>
+    <t>Crucio</t>
+  </si>
+  <si>
+    <t>Imperio</t>
+  </si>
+  <si>
+    <t>Incendio</t>
+  </si>
+  <si>
+    <t>Lumos</t>
+  </si>
+  <si>
+    <t>Reducto</t>
+  </si>
+  <si>
+    <t>Reparo</t>
+  </si>
+  <si>
+    <t>Avada</t>
+  </si>
+  <si>
+    <t>Kedavra</t>
+  </si>
+  <si>
+    <t>Sectumsempra</t>
+  </si>
+  <si>
+    <t>Words Used</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Begins with Consonant</t>
+  </si>
+  <si>
+    <t>Begins with Vowel</t>
+  </si>
+  <si>
+    <t>Double Consonants</t>
+  </si>
+  <si>
+    <t>Double Vowels</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,15 +204,1452 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45000770185660055"/>
+          <c:y val="1.8390802695442101E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beginning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penultimate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Last</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>J</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>L</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>P</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="313238680"/>
+        <c:axId val="313239072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="313238680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313239072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="313239072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313238680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>145227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +1695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1938,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/spell-table.xlsx
+++ b/spell-table.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Letter</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Double Vowels</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>VC</t>
   </si>
 </sst>
 </file>
@@ -887,11 +899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313238680"/>
-        <c:axId val="313239072"/>
+        <c:axId val="253094504"/>
+        <c:axId val="253094896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313238680"/>
+        <c:axId val="253094504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313239072"/>
+        <c:crossAx val="253094896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313239072"/>
+        <c:axId val="253094896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313238680"/>
+        <c:crossAx val="253094504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1939,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,12 +1965,12 @@
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1974,20 +1986,23 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2003,20 +2018,24 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1">
+        <f>SUM(G2:I2)</f>
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2032,20 +2051,24 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J27" si="0">SUM(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2061,20 +2084,24 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2090,20 +2117,24 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2119,8 +2150,15 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2136,8 +2174,15 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2153,8 +2198,12 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2170,8 +2219,12 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2187,8 +2240,12 @@
       <c r="I10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2204,8 +2261,12 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2221,8 +2282,12 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2238,8 +2303,12 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2255,8 +2324,12 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>31</v>
       </c>
@@ -2269,8 +2342,12 @@
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>32</v>
       </c>
@@ -2283,8 +2360,12 @@
       <c r="I16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>33</v>
       </c>
@@ -2297,8 +2378,12 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>34</v>
       </c>
@@ -2311,8 +2396,12 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>35</v>
       </c>
@@ -2325,8 +2414,12 @@
       <c r="I19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>36</v>
       </c>
@@ -2339,8 +2432,12 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>37</v>
       </c>
@@ -2353,8 +2450,12 @@
       <c r="I21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>38</v>
       </c>
@@ -2367,8 +2468,12 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>39</v>
       </c>
@@ -2381,8 +2486,12 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>40</v>
       </c>
@@ -2395,8 +2504,12 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>41</v>
       </c>
@@ -2409,8 +2522,12 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>42</v>
       </c>
@@ -2423,8 +2540,12 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>43</v>
       </c>
@@ -2436,6 +2557,31 @@
       </c>
       <c r="I27">
         <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <f>SUM(G2:G27)</f>
+        <v>30</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:J28" si="1">SUM(H2:H27)</f>
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J28" s="1">
+        <f>SUM(J2:J27)</f>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/spell-table.xlsx
+++ b/spell-table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Letter</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>VC</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>CCV</t>
   </si>
 </sst>
 </file>
@@ -899,11 +908,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253094504"/>
-        <c:axId val="253094896"/>
+        <c:axId val="271821328"/>
+        <c:axId val="271819760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253094504"/>
+        <c:axId val="271821328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253094896"/>
+        <c:crossAx val="271819760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253094896"/>
+        <c:axId val="271819760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253094504"/>
+        <c:crossAx val="271821328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1953,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2164,16 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2179,7 +2197,16 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2202,6 +2229,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2223,6 +2262,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2244,6 +2295,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2265,6 +2328,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2572,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28:J28" si="1">SUM(H2:H27)</f>
+        <f t="shared" ref="H28:I28" si="1">SUM(H2:H27)</f>
         <v>30</v>
       </c>
       <c r="I28" s="1">
